--- a/register65.xlsx
+++ b/register65.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodeWork\js\testWebCheckData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.KMUTT\IT29_Code\IT29CodeOfAquatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A4E904-BE62-4B8B-BDDE-5538856CC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F042CAA-C965-4B00-8E1A-BEDD1B2A2E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD844BD9-568B-40FC-9C89-B93635018891}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD844BD9-568B-40FC-9C89-B93635018891}"/>
   </bookViews>
   <sheets>
     <sheet name="65" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="348">
   <si>
     <t>Red</t>
   </si>
@@ -1065,6 +1065,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>อินทร์ริตา วราจิรวิโรจน์</t>
+  </si>
+  <si>
+    <t>อินทร์ริตา</t>
+  </si>
+  <si>
+    <t>วราจิรวิโรจน์</t>
+  </si>
+  <si>
+    <t>อาย</t>
+  </si>
+  <si>
+    <t>Y29, Y30</t>
   </si>
 </sst>
 </file>
@@ -1108,12 +1123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFEC428-497B-490D-8E58-FD1560AF1C09}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1469,10 +1483,10 @@
       <c r="A2">
         <v>65130500075</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" t="str">
         <f>LEFT(B2,FIND(" ",B2,1)-1)</f>
         <v>วิชิระ</v>
       </c>
@@ -1494,10 +1508,10 @@
       <c r="A3">
         <v>65130500110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">LEFT(B3,FIND(" ",B3,1)-1)</f>
         <v>ปรเมษฐ์</v>
       </c>
@@ -1519,10 +1533,10 @@
       <c r="A4">
         <v>65130500009</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>ปรเมษฐ์</v>
       </c>
@@ -1547,7 +1561,7 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>ลลิตา</v>
       </c>
@@ -1569,10 +1583,10 @@
       <c r="A6">
         <v>65130500104</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>ณัฐนันท์</v>
       </c>
@@ -1594,10 +1608,10 @@
       <c r="A7">
         <v>65130500125</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>อัชมาวีย์</v>
       </c>
@@ -1605,7 +1619,7 @@
         <f t="shared" si="1"/>
         <v>สนูวงศ์</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
@@ -1619,10 +1633,10 @@
       <c r="A8">
         <v>65130500002</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>กรณัฐ</v>
       </c>
@@ -1644,10 +1658,10 @@
       <c r="A9">
         <v>65130500120</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>อภิสรา</v>
       </c>
@@ -1669,10 +1683,10 @@
       <c r="A10">
         <v>65130500092</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>กฤตภาส</v>
       </c>
@@ -1694,10 +1708,10 @@
       <c r="A11">
         <v>65130500093</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>กิตติพัฒน์</v>
       </c>
@@ -1705,7 +1719,7 @@
         <f t="shared" si="1"/>
         <v>บัวลอยลม</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>91</v>
       </c>
       <c r="F11" t="s">
@@ -1719,10 +1733,10 @@
       <c r="A12">
         <v>65130500008</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>จิณณวัตร</v>
       </c>
@@ -1744,10 +1758,10 @@
       <c r="A13">
         <v>65130500033</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>นภทีป์</v>
       </c>
@@ -1769,10 +1783,10 @@
       <c r="A14">
         <v>65130500053</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>พีรพัฒน์</v>
       </c>
@@ -1797,7 +1811,7 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>จิรพัส</v>
       </c>
@@ -1819,10 +1833,10 @@
       <c r="A16">
         <v>65130500065</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>ภูริ</v>
       </c>
@@ -1847,7 +1861,7 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>ชัยมงคล</v>
       </c>
@@ -1872,7 +1886,7 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>ภูธร</v>
       </c>
@@ -1897,7 +1911,7 @@
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>หทัยทัต</v>
       </c>
@@ -1922,7 +1936,7 @@
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>ภูวเมศฐ์</v>
       </c>
@@ -1947,7 +1961,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>มัณฑนา</v>
       </c>
@@ -1969,10 +1983,10 @@
       <c r="A22">
         <v>65130500112</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>พุฒินัฐ</v>
       </c>
@@ -1997,7 +2011,7 @@
       <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>ธนชนก</v>
       </c>
@@ -2022,7 +2036,7 @@
       <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>ชนาธิป</v>
       </c>
@@ -2047,7 +2061,7 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>ธนวินท์</v>
       </c>
@@ -2072,7 +2086,7 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>พัชรนันท์</v>
       </c>
@@ -2091,13 +2105,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>65130500036</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>นิชฌาน</v>
       </c>
@@ -2105,7 +2119,7 @@
         <f t="shared" si="1"/>
         <v>กลกิจ</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>59</v>
       </c>
       <c r="F27" t="s">
@@ -2122,7 +2136,7 @@
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>ชนกานต์</v>
       </c>
@@ -2147,7 +2161,7 @@
       <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>พุทธินันท์</v>
       </c>
@@ -2172,7 +2186,7 @@
       <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>พสิษธ์</v>
       </c>
@@ -2197,7 +2211,7 @@
       <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>ธีรธร</v>
       </c>
@@ -2222,7 +2236,7 @@
       <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>นลินี</v>
       </c>
@@ -2247,7 +2261,7 @@
       <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>แพรไหม</v>
       </c>
@@ -2272,7 +2286,7 @@
       <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>ธิติพัทธ์</v>
       </c>
@@ -2297,7 +2311,7 @@
       <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>พสิษฐ์</v>
       </c>
@@ -2322,7 +2336,7 @@
       <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>ศักดิ์สิทธิ์</v>
       </c>
@@ -2341,13 +2355,13 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>65130500022</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>ณัฐศรัณย์</v>
       </c>
@@ -2355,10 +2369,10 @@
         <f t="shared" si="1"/>
         <v>แซ่อึ่ง</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>1</v>
       </c>
       <c r="G37" t="s">
@@ -2369,10 +2383,10 @@
       <c r="A38">
         <v>65130500098</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>ชวินธร</v>
       </c>
@@ -2383,7 +2397,7 @@
       <c r="E38" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>1</v>
       </c>
       <c r="G38" t="s">
@@ -2394,10 +2408,10 @@
       <c r="A39">
         <v>65130500121</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>ชนกานต์</v>
       </c>
@@ -2408,7 +2422,7 @@
       <c r="E39" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>1</v>
       </c>
       <c r="G39" t="s">
@@ -2416,13 +2430,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>65130500097</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>ชยาศิส</v>
       </c>
@@ -2430,10 +2444,10 @@
         <f t="shared" si="1"/>
         <v>เกษรมาศ</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>1</v>
       </c>
       <c r="G40" t="s">
@@ -2441,13 +2455,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>65130500084</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>สิทธา</v>
       </c>
@@ -2455,10 +2469,10 @@
         <f t="shared" si="1"/>
         <v>มานิตยกุล</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>1</v>
       </c>
       <c r="G41" t="s">
@@ -2466,13 +2480,13 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>65130500105</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>ณัฐพล</v>
       </c>
@@ -2480,10 +2494,10 @@
         <f t="shared" si="1"/>
         <v>นิรัตติศัยกุล</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>1</v>
       </c>
       <c r="G42" t="s">
@@ -2497,7 +2511,7 @@
       <c r="B43" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>สิรภพ</v>
       </c>
@@ -2508,7 +2522,7 @@
       <c r="E43" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>1</v>
       </c>
       <c r="G43" t="s">
@@ -2519,10 +2533,10 @@
       <c r="A44">
         <v>65130500088</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>อรินทร์</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="E44" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>1</v>
       </c>
       <c r="G44" t="s">
@@ -2541,13 +2555,13 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>65130500122</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>ตรีภูมิ</v>
       </c>
@@ -2555,10 +2569,10 @@
         <f t="shared" si="1"/>
         <v>งามศิริสมสกุล</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>1</v>
       </c>
       <c r="G45" t="s">
@@ -2566,13 +2580,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>65130500077</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>ศรัณยู</v>
       </c>
@@ -2580,10 +2594,10 @@
         <f t="shared" si="1"/>
         <v>สุโพธิ์ไขย์</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>1</v>
       </c>
       <c r="G46" t="s">
@@ -2594,10 +2608,10 @@
       <c r="A47">
         <v>65130500012</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>เจตนิพัทธ์</v>
       </c>
@@ -2608,7 +2622,7 @@
       <c r="E47" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>1</v>
       </c>
       <c r="G47" t="s">
@@ -2619,10 +2633,10 @@
       <c r="A48">
         <v>65130500007</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>จักรธร</v>
       </c>
@@ -2633,7 +2647,7 @@
       <c r="E48" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>1</v>
       </c>
       <c r="G48" t="s">
@@ -2647,7 +2661,7 @@
       <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>ภาคภูมิ</v>
       </c>
@@ -2658,7 +2672,7 @@
       <c r="E49" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>1</v>
       </c>
       <c r="G49" t="s">
@@ -2672,7 +2686,7 @@
       <c r="B50" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>นทีธาร</v>
       </c>
@@ -2683,7 +2697,7 @@
       <c r="E50" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>1</v>
       </c>
       <c r="G50" t="s">
@@ -2694,10 +2708,10 @@
       <c r="A51">
         <v>65130500023</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v>ติณณภพ</v>
       </c>
@@ -2708,7 +2722,7 @@
       <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>1</v>
       </c>
       <c r="G51" t="s">
@@ -2722,7 +2736,7 @@
       <c r="B52" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v>อัครวิทย์</v>
       </c>
@@ -2733,7 +2747,7 @@
       <c r="E52" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>1</v>
       </c>
       <c r="G52" t="s">
@@ -2744,10 +2758,10 @@
       <c r="A53">
         <v>65130500064</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>ภูริกรณ์</v>
       </c>
@@ -2758,7 +2772,7 @@
       <c r="E53" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>1</v>
       </c>
       <c r="G53" t="s">
@@ -2769,10 +2783,10 @@
       <c r="A54">
         <v>65130500029</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>ธิติพงศ์</v>
       </c>
@@ -2783,7 +2797,7 @@
       <c r="E54" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>1</v>
       </c>
       <c r="G54" t="s">
@@ -2794,10 +2808,10 @@
       <c r="A55">
         <v>65130500015</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v>ชนะพล</v>
       </c>
@@ -2808,7 +2822,7 @@
       <c r="E55" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>1</v>
       </c>
       <c r="G55" t="s">
@@ -2819,10 +2833,10 @@
       <c r="A56">
         <v>65130500014</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v>ชนะชัย</v>
       </c>
@@ -2833,7 +2847,7 @@
       <c r="E56" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>1</v>
       </c>
       <c r="G56" t="s">
@@ -2844,10 +2858,10 @@
       <c r="A57">
         <v>65130500010</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v>จิรนันท์</v>
       </c>
@@ -2858,7 +2872,7 @@
       <c r="E57" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>1</v>
       </c>
       <c r="G57" t="s">
@@ -2869,10 +2883,10 @@
       <c r="A58">
         <v>65130500005</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>กันดิศ</v>
       </c>
@@ -2883,7 +2897,7 @@
       <c r="E58" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" t="s">
         <v>1</v>
       </c>
       <c r="G58" t="s">
@@ -2897,7 +2911,7 @@
       <c r="B59" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>ภาคิณ</v>
       </c>
@@ -2908,7 +2922,7 @@
       <c r="E59" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" t="s">
         <v>1</v>
       </c>
       <c r="G59" t="s">
@@ -2919,10 +2933,10 @@
       <c r="A60">
         <v>65130500072</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>วริทธิ์ธร</v>
       </c>
@@ -2933,7 +2947,7 @@
       <c r="E60" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
         <v>3</v>
       </c>
       <c r="G60" t="s">
@@ -2944,10 +2958,10 @@
       <c r="A61">
         <v>65130500041</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v>ปภังกร</v>
       </c>
@@ -2958,7 +2972,7 @@
       <c r="E61" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" t="s">
         <v>3</v>
       </c>
       <c r="G61" t="s">
@@ -2969,10 +2983,10 @@
       <c r="A62">
         <v>65130500087</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>Anawat</v>
       </c>
@@ -2983,7 +2997,7 @@
       <c r="E62" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
         <v>3</v>
       </c>
       <c r="G62" t="s">
@@ -2994,10 +3008,10 @@
       <c r="A63">
         <v>65130500044</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>ปิติชัย</v>
       </c>
@@ -3008,7 +3022,7 @@
       <c r="E63" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>3</v>
       </c>
       <c r="G63" t="s">
@@ -3019,10 +3033,10 @@
       <c r="A64">
         <v>65130500100</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v>ชินภัทร</v>
       </c>
@@ -3033,7 +3047,7 @@
       <c r="E64" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>3</v>
       </c>
       <c r="G64" t="s">
@@ -3044,10 +3058,10 @@
       <c r="A65">
         <v>65130500045</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v>พงศพัศ</v>
       </c>
@@ -3058,7 +3072,7 @@
       <c r="E65" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65" t="s">
@@ -3072,7 +3086,7 @@
       <c r="B66" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="2" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="0"/>
         <v>นัทธมน</v>
       </c>
@@ -3083,7 +3097,7 @@
       <c r="E66" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" t="s">
         <v>3</v>
       </c>
       <c r="G66" t="s">
@@ -3094,21 +3108,21 @@
       <c r="A67">
         <v>65130500081</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="2" t="str">
-        <f t="shared" ref="C67:C114" si="2">LEFT(B67,FIND(" ",B67,1)-1)</f>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C115" si="2">LEFT(B67,FIND(" ",B67,1)-1)</f>
         <v>ศุภกร</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D114" si="3">RIGHT(B67,LEN(B67)-FIND(" ",B67,1))</f>
+        <f t="shared" ref="D67:D115" si="3">RIGHT(B67,LEN(B67)-FIND(" ",B67,1))</f>
         <v>ปรีชานฤตย์</v>
       </c>
       <c r="E67" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" t="s">
         <v>3</v>
       </c>
       <c r="G67" t="s">
@@ -3119,10 +3133,10 @@
       <c r="A68">
         <v>65130500003</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="2" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="2"/>
         <v>กฤติชัย</v>
       </c>
@@ -3133,7 +3147,7 @@
       <c r="E68" t="s">
         <v>199</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" t="s">
         <v>3</v>
       </c>
       <c r="G68" t="s">
@@ -3144,10 +3158,10 @@
       <c r="A69">
         <v>65130500079</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="2" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="2"/>
         <v>ศิรกาญ</v>
       </c>
@@ -3158,7 +3172,7 @@
       <c r="E69" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" t="s">
         <v>3</v>
       </c>
       <c r="G69" t="s">
@@ -3172,7 +3186,7 @@
       <c r="B70" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="2" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="2"/>
         <v>วริษา</v>
       </c>
@@ -3183,7 +3197,7 @@
       <c r="E70" t="s">
         <v>203</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" t="s">
         <v>3</v>
       </c>
       <c r="G70" t="s">
@@ -3197,7 +3211,7 @@
       <c r="B71" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="2" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="2"/>
         <v>แพรพิไล</v>
       </c>
@@ -3208,7 +3222,7 @@
       <c r="E71" t="s">
         <v>205</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" t="s">
         <v>3</v>
       </c>
       <c r="G71" t="s">
@@ -3219,10 +3233,10 @@
       <c r="A72">
         <v>65130500101</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="2" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="2"/>
         <v>ฐานพัฒน์</v>
       </c>
@@ -3233,7 +3247,7 @@
       <c r="E72" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" t="s">
         <v>3</v>
       </c>
       <c r="G72" t="s">
@@ -3242,1050 +3256,1073 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>65130500006</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>กันตพงศ์</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="3"/>
-        <v>พลมณี</v>
+        <v>65130500090</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" t="s">
+        <v>345</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
-      </c>
-      <c r="F73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F73" t="s">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>65130500091</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>อิสมัต</v>
+        <v>65130500006</v>
+      </c>
+      <c r="B74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>กันตพงศ์</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
-        <v>บุญมาเลิศ</v>
+        <v>พลมณี</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" t="s">
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>65130500071</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>วรนุ</v>
+        <v>65130500091</v>
+      </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v>อิสมัต</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
-        <v>นริศเนตร</v>
+        <v>บุญมาเลิศ</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F75" t="s">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>65130500106</v>
+        <v>65130500071</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>เมธัส</v>
+        <v>212</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v>วรนุ</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
-        <v>ดำรงค์มงคลกุล</v>
+        <v>นริศเนตร</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>65130500083</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>สรวิชญ์</v>
+        <v>65130500106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v>เมธัส</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
-        <v>เครือคำ</v>
+        <v>ดำรงค์มงคลกุล</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
-      </c>
-      <c r="F77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>65130500111</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>พิมพ์พจี</v>
+        <v>65130500083</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v>สรวิชญ์</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
-        <v>เศรษฐีรุ่งภพ</v>
+        <v>เครือคำ</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
-      </c>
-      <c r="F78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" t="s">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>65130500118</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ศักย์ศรัณย์</v>
+        <v>65130500111</v>
+      </c>
+      <c r="B79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v>พิมพ์พจี</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="3"/>
-        <v>อัครเมธาวงศ์</v>
+        <v>เศรษฐีรุ่งภพ</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
-      </c>
-      <c r="F79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F79" t="s">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>65130500069</v>
+        <v>65130500118</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>วงศธร</v>
+        <v>220</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>ศักย์ศรัณย์</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="3"/>
-        <v>ตั้งชูเกียรติกุล</v>
+        <v>อัครเมธาวงศ์</v>
       </c>
       <c r="E80" t="s">
-        <v>243</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>4</v>
+        <v>221</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>65130500070</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>วนัสนันท์</v>
+        <v>65130500069</v>
+      </c>
+      <c r="B81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>วงศธร</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="3"/>
-        <v>ตรีอภิบาลวงศา</v>
+        <v>ตั้งชูเกียรติกุล</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
-      </c>
-      <c r="F81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" t="s">
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>65130500080</v>
+        <v>65130500070</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ศิริวรรณ</v>
+        <v>244</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>วนัสนันท์</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="3"/>
-        <v>โห้สารี</v>
+        <v>ตรีอภิบาลวงศา</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" t="s">
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>65130500057</v>
+        <v>65130500080</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ภัทรดนัย</v>
+        <v>245</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>ศิริวรรณ</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="3"/>
-        <v>ศรีชน</v>
+        <v>โห้สารี</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
-      </c>
-      <c r="F83" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" t="s">
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>65130500050</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>พาณิภัค</v>
+        <v>65130500057</v>
+      </c>
+      <c r="B84" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>ภัทรดนัย</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="3"/>
-        <v>จงศิริวาณิช</v>
+        <v>ศรีชน</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
-      </c>
-      <c r="F84" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F84" t="s">
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>65130500020</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ณัฐภัทร</v>
+        <v>65130500050</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>พาณิภัค</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="3"/>
-        <v>เลิศศิริพงศ์พันธ์</v>
+        <v>จงศิริวาณิช</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
-      </c>
-      <c r="F85" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>65130500021</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ณัฐวรรณ</v>
+        <v>65130500020</v>
+      </c>
+      <c r="B86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>ณัฐภัทร</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="3"/>
-        <v>คุ้มเผ่า</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" s="2" t="s">
+        <v>เลิศศิริพงศ์พันธ์</v>
+      </c>
+      <c r="E86" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" t="s">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>65130500103</v>
+        <v>65130500021</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ณัฐธิดา</v>
+        <v>252</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>ณัฐวรรณ</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="3"/>
-        <v>รุ่งเรือง</v>
+        <v>คุ้มเผ่า</v>
       </c>
       <c r="E87" t="s">
-        <v>255</v>
-      </c>
-      <c r="F87" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87" t="s">
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>65130500102</v>
+        <v>65130500103</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
-      </c>
-      <c r="C88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ณัฐดนัย</v>
+        <v>254</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>ณัฐธิดา</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="3"/>
-        <v>เทศปัญ</v>
+        <v>รุ่งเรือง</v>
       </c>
       <c r="E88" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>65130500004</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ก้องภพ</v>
+        <v>65130500102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>ณัฐดนัย</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="3"/>
-        <v>พันธุ์กุ่ม</v>
+        <v>เทศปัญ</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
-      </c>
-      <c r="F89" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F89" t="s">
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>65130500027</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ธเนศ</v>
+        <v>65130500004</v>
+      </c>
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>ก้องภพ</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="3"/>
-        <v>ธัญญะพานิช</v>
+        <v>พันธุ์กุ่ม</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
-      </c>
-      <c r="F90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" t="s">
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>65130500047</v>
+        <v>65130500027</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>พรชัย</v>
+        <v>259</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>ธเนศ</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
-        <v>แก้วกระบิล</v>
+        <v>ธัญญะพานิช</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
-      </c>
-      <c r="F91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" t="s">
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>65130500052</v>
+        <v>65130500047</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
-      </c>
-      <c r="C92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>พิมพ์พิชญา</v>
+        <v>261</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>พรชัย</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
-        <v>แก้วแสง</v>
+        <v>แก้วกระบิล</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
-      </c>
-      <c r="F92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" t="s">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>65130500028</v>
+        <v>65130500052</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ธมลวรรณ</v>
+        <v>263</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>พิมพ์พิชญา</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="3"/>
-        <v>ซิ้มเจริญ</v>
+        <v>แก้วแสง</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" t="s">
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>65130500051</v>
+        <v>65130500028</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>พิณงาม</v>
+        <v>265</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>ธมลวรรณ</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="3"/>
-        <v>สมบัติศรี</v>
+        <v>ซิ้มเจริญ</v>
       </c>
       <c r="E94" t="s">
-        <v>268</v>
-      </c>
-      <c r="F94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>65130500040</v>
+        <v>65130500051</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>เบญญาพร</v>
+        <v>267</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v>พิณงาม</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="3"/>
-        <v>แสงเขียว</v>
+        <v>สมบัติศรี</v>
       </c>
       <c r="E95" t="s">
-        <v>270</v>
-      </c>
-      <c r="F95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>65130500046</v>
+        <v>65130500040</v>
       </c>
       <c r="B96" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>พชรดล</v>
+        <v>269</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v>เบญญาพร</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
-        <v>แตงพลับ</v>
+        <v>แสงเขียว</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
-      </c>
-      <c r="F96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F96" t="s">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>65130500109</v>
+        <v>65130500046</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ใบตอง</v>
+        <v>271</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v>พชรดล</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
-        <v>แซ่โค้ว</v>
+        <v>แตงพลับ</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
-      </c>
-      <c r="F97" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
+        <v>65130500109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="2"/>
+        <v>ใบตอง</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="3"/>
+        <v>แซ่โค้ว</v>
+      </c>
+      <c r="E98" t="s">
+        <v>274</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>65130500107</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>275</v>
       </c>
-      <c r="C98" s="2" t="str">
+      <c r="C99" t="str">
         <f t="shared" si="2"/>
         <v>นิศารัตน์</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D99" t="str">
         <f t="shared" si="3"/>
         <v>อุ่นเรือนงาม</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>276</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F99" t="s">
         <v>4</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G99" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>65130500019</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ณัฐภัทร</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="3"/>
-        <v>ถาวร</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G99" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>65130500018</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ณัฐนรินทร์</v>
+        <v>65130500019</v>
+      </c>
+      <c r="B100" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="2"/>
+        <v>ณัฐภัทร</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
-        <v>ชัยศิริพานิช</v>
+        <v>ถาวร</v>
       </c>
       <c r="E100" t="s">
-        <v>300</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>5</v>
+        <v>278</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>65130500073</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>วัชระ</v>
+        <v>65130500018</v>
+      </c>
+      <c r="B101" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="2"/>
+        <v>ณัฐนรินทร์</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
-        <v>สันทวี</v>
+        <v>ชัยศิริพานิช</v>
       </c>
       <c r="E101" t="s">
-        <v>302</v>
-      </c>
-      <c r="F101" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" t="s">
         <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>65130500016</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ชิษณุชา</v>
+        <v>65130500073</v>
+      </c>
+      <c r="B102" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="2"/>
+        <v>วัชระ</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
-        <v>เชิงสมอ</v>
+        <v>สันทวี</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
-      </c>
-      <c r="F102" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" t="s">
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>65130500068</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C103" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>รติกร</v>
+        <v>65130500016</v>
+      </c>
+      <c r="B103" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="2"/>
+        <v>ชิษณุชา</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
-        <v>ดำเกิงลัภนวณิช</v>
+        <v>เชิงสมอ</v>
       </c>
       <c r="E103" t="s">
-        <v>306</v>
-      </c>
-      <c r="F103" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F103" t="s">
         <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>65130500017</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C104" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ญาดา</v>
+        <v>65130500068</v>
+      </c>
+      <c r="B104" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="2"/>
+        <v>รติกร</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
-        <v>เจนรุ่งโรจน์สกุล</v>
+        <v>ดำเกิงลัภนวณิช</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
-      </c>
-      <c r="F104" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F104" t="s">
         <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
+        <v>65130500017</v>
+      </c>
+      <c r="B105" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="2"/>
+        <v>ญาดา</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v>เจนรุ่งโรจน์สกุล</v>
+      </c>
+      <c r="E105" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>65130500024</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" t="s">
         <v>309</v>
       </c>
-      <c r="C105" s="2" t="str">
+      <c r="C106" t="str">
         <f t="shared" si="2"/>
         <v>ทัศน์พล</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D106" t="str">
         <f t="shared" si="3"/>
         <v>เถื่อนชำนาญ</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>310</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F106" t="s">
         <v>5</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>65130500094</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ชนะพล</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="3"/>
-        <v>พันธุวดี</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>65130500032</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>นพกฤษฏิ์</v>
+        <v>65130500094</v>
+      </c>
+      <c r="B107" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="2"/>
+        <v>ชนะพล</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
-        <v>นิธิชัยสถิตย์</v>
+        <v>พันธุวดี</v>
       </c>
       <c r="E107" t="s">
-        <v>314</v>
-      </c>
-      <c r="F107" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F107" t="s">
         <v>5</v>
       </c>
       <c r="G107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>65130500043</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ปัณณวัฒน์</v>
+        <v>65130500032</v>
+      </c>
+      <c r="B108" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="2"/>
+        <v>นพกฤษฏิ์</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
-        <v>ศรีภา</v>
+        <v>นิธิชัยสถิตย์</v>
       </c>
       <c r="E108" t="s">
-        <v>316</v>
-      </c>
-      <c r="F108" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F108" t="s">
         <v>5</v>
       </c>
       <c r="G108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>65130500037</v>
+        <v>65130500043</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
-      </c>
-      <c r="C109" s="2" t="str">
-        <f>B109</f>
-        <v>นิติศักดิ์</v>
-      </c>
-      <c r="D109" t="s">
-        <v>342</v>
+        <v>315</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="2"/>
+        <v>ปัณณวัฒน์</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
+        <v>ศรีภา</v>
       </c>
       <c r="E109" t="s">
-        <v>318</v>
-      </c>
-      <c r="F109" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" t="s">
         <v>5</v>
       </c>
       <c r="G109" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>65130500074</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C110" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>วิชญ์พล</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="3"/>
-        <v>จิตต์ปราณี</v>
+        <v>65130500037</v>
+      </c>
+      <c r="B110" t="s">
+        <v>317</v>
+      </c>
+      <c r="C110" t="str">
+        <f>B110</f>
+        <v>นิติศักดิ์</v>
+      </c>
+      <c r="D110" t="s">
+        <v>342</v>
       </c>
       <c r="E110" t="s">
-        <v>320</v>
-      </c>
-      <c r="F110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F110" t="s">
         <v>5</v>
       </c>
       <c r="G110" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>65130500060</v>
+        <v>65130500074</v>
       </c>
       <c r="B111" t="s">
-        <v>321</v>
-      </c>
-      <c r="C111" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ภานุวัฒน์</v>
+        <v>319</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="2"/>
+        <v>วิชญ์พล</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
-        <v>วงษ์กระจ่าง</v>
+        <v>จิตต์ปราณี</v>
       </c>
       <c r="E111" t="s">
-        <v>84</v>
-      </c>
-      <c r="F111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" t="s">
         <v>5</v>
       </c>
       <c r="G111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>65130500039</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C112" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>นิรพันธ์</v>
+        <v>65130500060</v>
+      </c>
+      <c r="B112" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="2"/>
+        <v>ภานุวัฒน์</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="3"/>
-        <v>ดวงใจรักเกษม</v>
+        <v>วงษ์กระจ่าง</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
-      </c>
-      <c r="F112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" t="s">
         <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>65130500076</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C113" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>วีราพัชร์</v>
+        <v>65130500039</v>
+      </c>
+      <c r="B113" t="s">
+        <v>322</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="2"/>
+        <v>นิรพันธ์</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="3"/>
-        <v>ดุจยงธรรมคุณ</v>
+        <v>ดวงใจรักเกษม</v>
       </c>
       <c r="E113" t="s">
-        <v>324</v>
-      </c>
-      <c r="F113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F113" t="s">
         <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
+        <v>65130500076</v>
+      </c>
+      <c r="B114" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="2"/>
+        <v>วีราพัชร์</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="3"/>
+        <v>ดุจยงธรรมคุณ</v>
+      </c>
+      <c r="E114" t="s">
+        <v>324</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>65130500108</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" t="s">
         <v>325</v>
       </c>
-      <c r="C114" s="2" t="str">
+      <c r="C115" t="str">
         <f t="shared" si="2"/>
         <v>บุณยกร</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D115" t="str">
         <f t="shared" si="3"/>
         <v>พรสมบัติไพบูลย์</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>326</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F115" t="s">
         <v>5</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4294,7 +4331,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C109" formula="1"/>
+    <ignoredError sqref="C110" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>